--- a/IMPOSTO DE RENDA.xlsx
+++ b/IMPOSTO DE RENDA.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fran\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{03252CEC-E499-4367-AEF3-C16F6F7C3900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117D0244-B350-44AD-A2C1-803B19BAD8B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" firstSheet="2" activeTab="2" xr2:uid="{D8651566-3583-4833-BE48-2F78CEF74B1E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{D8651566-3583-4833-BE48-2F78CEF74B1E}"/>
   </bookViews>
   <sheets>
     <sheet name="TÍTULAR" sheetId="1" r:id="rId1"/>
     <sheet name="INFORMES" sheetId="8" r:id="rId2"/>
     <sheet name="NOTAS" sheetId="9" r:id="rId3"/>
-    <sheet name="Planilha1" sheetId="7" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="7" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="BANCO">Planilha1!$A$1:$A$51</definedName>
@@ -3550,10 +3550,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{78BB2CE3-FD5E-471D-8EDB-D8D58FAC2226}" name="Tabela1" displayName="Tabela1" ref="C11:E29" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="C11:E29" xr:uid="{78BB2CE3-FD5E-471D-8EDB-D8D58FAC2226}"/>
@@ -3885,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B93A8FC-8A2C-49F5-9375-9678A17D4D7B}">
   <dimension ref="A4:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
@@ -4153,7 +4149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998AF792-434F-4856-B2E4-A4E8AF1FC942}">
   <dimension ref="A4:XFC29"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
